--- a/transactions.xlsx
+++ b/transactions.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Rekap Ceu Monny</t>
   </si>
   <si>
-    <t xml:space="preserve">Tanggal : </t>
+    <t>Tanggal : Hari 01 Bulan 09 Tahun 2024</t>
   </si>
   <si>
     <t>Bill ID</t>
@@ -67,40 +67,19 @@
     <t>sudah</t>
   </si>
   <si>
-    <t>02 September 2024 17:24:21</t>
+    <t>01 September 2024 17:24:37</t>
+  </si>
+  <si>
+    <t>Transfer BCA</t>
+  </si>
+  <si>
+    <t>Nasi Ayam Nashville Sambal Bawang</t>
+  </si>
+  <si>
+    <t>01 September 2024 18:57:17</t>
   </si>
   <si>
     <t>Transfer Mandiri</t>
-  </si>
-  <si>
-    <t>Siomay Ayam</t>
-  </si>
-  <si>
-    <t>Tempe Mendoan</t>
-  </si>
-  <si>
-    <t>01 October 2024 17:24:32</t>
-  </si>
-  <si>
-    <t>QRIS</t>
-  </si>
-  <si>
-    <t>Es Ceu Monny</t>
-  </si>
-  <si>
-    <t>Aneka Jus</t>
-  </si>
-  <si>
-    <t>Sandwich Ayam Nashville Sambal Matah</t>
-  </si>
-  <si>
-    <t>01 September 2024 17:24:37</t>
-  </si>
-  <si>
-    <t>Transfer BCA</t>
-  </si>
-  <si>
-    <t>Nasi Ayam Nashville Sambal Bawang</t>
   </si>
 </sst>
 </file>
@@ -466,7 +445,7 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
@@ -478,19 +457,19 @@
         <v>18</v>
       </c>
       <c r="E4">
-        <v>32000</v>
+        <v>20000</v>
       </c>
       <c r="F4">
-        <v>32000</v>
+        <v>20000</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -508,173 +487,59 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="5">
-      <c r="H5">
-        <v>4</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-      <c r="J5">
+    <row r="5"/>
+    <row r="6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>20000</v>
+      </c>
+      <c r="F6">
+        <v>20000</v>
+      </c>
+      <c r="G6">
         <v>0</v>
       </c>
-      <c r="K5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5">
-        <v>12000</v>
-      </c>
-      <c r="M5">
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6">
+        <v>20000</v>
+      </c>
+      <c r="M6">
         <v>1</v>
       </c>
-      <c r="N5">
-        <v>12000</v>
+      <c r="N6">
+        <v>20000</v>
       </c>
     </row>
-    <row r="6"/>
-    <row r="7">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>45000</v>
-      </c>
-      <c r="F7">
-        <v>45000</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>5</v>
-      </c>
-      <c r="I7">
-        <v>3</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L7">
-        <v>15000</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="N7">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="H8">
+    <row r="7"/>
+    <row r="8"/>
+    <row r="9">
+      <c r="J9" t="s">
         <v>6</v>
       </c>
-      <c r="I8">
-        <v>3</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8" t="s">
-        <v>24</v>
-      </c>
-      <c r="L8">
-        <v>13000</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="H9">
-        <v>7</v>
-      </c>
-      <c r="I9">
-        <v>3</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L9">
-        <v>17000</v>
-      </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
       <c r="N9">
-        <v>17000</v>
-      </c>
-    </row>
-    <row r="10"/>
-    <row r="11">
-      <c r="A11">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11">
-        <v>20000</v>
-      </c>
-      <c r="F11">
-        <v>20000</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>8</v>
-      </c>
-      <c r="I11">
-        <v>4</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L11">
-        <v>20000</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-      <c r="N11">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="12"/>
-    <row r="13"/>
-    <row r="14">
-      <c r="J14" t="s">
-        <v>6</v>
-      </c>
-      <c r="N14">
-        <v>97000</v>
+        <v>40000</v>
       </c>
     </row>
   </sheetData>

--- a/transactions.xlsx
+++ b/transactions.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Rekap Ceu Monny</t>
   </si>
   <si>
-    <t>Tanggal : Hari 01 Bulan 09 Tahun 2024</t>
+    <t xml:space="preserve">Tanggal : </t>
   </si>
   <si>
     <t>Bill ID</t>
@@ -67,6 +67,33 @@
     <t>sudah</t>
   </si>
   <si>
+    <t>02 September 2024 17:24:21</t>
+  </si>
+  <si>
+    <t>Transfer Mandiri</t>
+  </si>
+  <si>
+    <t>Siomay Ayam</t>
+  </si>
+  <si>
+    <t>Tempe Mendoan</t>
+  </si>
+  <si>
+    <t>01 October 2024 17:24:32</t>
+  </si>
+  <si>
+    <t>QRIS</t>
+  </si>
+  <si>
+    <t>Es Ceu Monny</t>
+  </si>
+  <si>
+    <t>Aneka Jus</t>
+  </si>
+  <si>
+    <t>Sandwich Ayam Nashville Sambal Matah</t>
+  </si>
+  <si>
     <t>01 September 2024 17:24:37</t>
   </si>
   <si>
@@ -79,7 +106,22 @@
     <t>01 September 2024 18:57:17</t>
   </si>
   <si>
-    <t>Transfer Mandiri</t>
+    <t>07 September 2024 09:48:04</t>
+  </si>
+  <si>
+    <t>Nasi Putih</t>
+  </si>
+  <si>
+    <t>Subtotal for each Jenis Pembayaran:</t>
+  </si>
+  <si>
+    <t>OVO</t>
+  </si>
+  <si>
+    <t>Gopay</t>
+  </si>
+  <si>
+    <t>Cash</t>
   </si>
 </sst>
 </file>
@@ -445,7 +487,7 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
@@ -457,19 +499,19 @@
         <v>18</v>
       </c>
       <c r="E4">
-        <v>20000</v>
+        <v>32000</v>
       </c>
       <c r="F4">
-        <v>20000</v>
+        <v>32000</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -487,59 +529,317 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="5"/>
-    <row r="6">
-      <c r="A6">
+    <row r="5">
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5">
+        <v>12000</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="6"/>
+    <row r="7">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>45000</v>
+      </c>
+      <c r="F7">
+        <v>45000</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7">
+        <v>15000</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8">
+        <v>13000</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="H9">
+        <v>7</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9">
+        <v>17000</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="10"/>
+    <row r="11">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>20000</v>
-      </c>
-      <c r="F6">
-        <v>20000</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>20000</v>
+      </c>
+      <c r="F11">
+        <v>20000</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>8</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11">
+        <v>20000</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="12"/>
+    <row r="13">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13">
+        <v>20000</v>
+      </c>
+      <c r="F13">
+        <v>20000</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>10</v>
       </c>
-      <c r="I6">
+      <c r="I13">
         <v>5</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6">
-        <v>20000</v>
-      </c>
-      <c r="M6">
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13">
+        <v>20000</v>
+      </c>
+      <c r="M13">
         <v>1</v>
       </c>
-      <c r="N6">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="7"/>
-    <row r="8"/>
-    <row r="9">
-      <c r="J9" t="s">
+      <c r="N13">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="14"/>
+    <row r="15">
+      <c r="A15">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15">
+        <v>5000</v>
+      </c>
+      <c r="F15">
+        <v>5000</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>14</v>
+      </c>
+      <c r="I15">
+        <v>9</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15">
+        <v>5000</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="16"/>
+    <row r="17"/>
+    <row r="18">
+      <c r="J18" t="s">
         <v>6</v>
       </c>
-      <c r="N9">
-        <v>40000</v>
+      <c r="N18">
+        <v>122000</v>
+      </c>
+    </row>
+    <row r="19"/>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>57000</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/transactions.xlsx
+++ b/transactions.xlsx
@@ -115,13 +115,13 @@
     <t>Subtotal for each Jenis Pembayaran:</t>
   </si>
   <si>
+    <t>Cash</t>
+  </si>
+  <si>
     <t>OVO</t>
   </si>
   <si>
     <t>Gopay</t>
-  </si>
-  <si>
-    <t>Cash</t>
   </si>
 </sst>
 </file>
@@ -796,34 +796,34 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B21">
-        <v>57000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B22">
-        <v>20000</v>
+        <v>57000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>45000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="25">

--- a/transactions.xlsx
+++ b/transactions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Rekap Ceu Monny</t>
   </si>
@@ -112,7 +112,22 @@
     <t>Nasi Putih</t>
   </si>
   <si>
-    <t>Subtotal for each Jenis Pembayaran:</t>
+    <t>26 October 2024 17:32:19</t>
+  </si>
+  <si>
+    <t>Nasi Ayam Nashville BBQ</t>
+  </si>
+  <si>
+    <t>26 October 2024 17:36:27</t>
+  </si>
+  <si>
+    <t>Mie Ayam Jakarta</t>
+  </si>
+  <si>
+    <t>27 October 2024 14:37:27</t>
+  </si>
+  <si>
+    <t>Total dari masing - masing Jenis Pembayaran:</t>
   </si>
   <si>
     <t>Cash</t>
@@ -779,66 +794,247 @@
       </c>
     </row>
     <row r="16"/>
-    <row r="17"/>
+    <row r="17">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17">
+        <v>40000</v>
+      </c>
+      <c r="F17">
+        <v>40000</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>19</v>
+      </c>
+      <c r="I17">
+        <v>13</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17" t="s">
+        <v>33</v>
+      </c>
+      <c r="L17">
+        <v>20000</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>20000</v>
+      </c>
+    </row>
     <row r="18">
-      <c r="J18" t="s">
-        <v>6</v>
+      <c r="H18">
+        <v>20</v>
+      </c>
+      <c r="I18">
+        <v>13</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18">
+        <v>20000</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
       </c>
       <c r="N18">
-        <v>122000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="19"/>
     <row r="20">
-      <c r="A20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
+      <c r="A20">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20">
+        <v>20000</v>
+      </c>
+      <c r="F20">
+        <v>20000</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>21</v>
+      </c>
+      <c r="I20">
+        <v>14</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L20">
+        <v>20000</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="21"/>
     <row r="22">
-      <c r="A22" t="s">
+      <c r="A22">
+        <v>15</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" t="s">
         <v>18</v>
       </c>
-      <c r="B22">
-        <v>57000</v>
+      <c r="E22">
+        <v>37000</v>
+      </c>
+      <c r="F22">
+        <v>37000</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>22</v>
+      </c>
+      <c r="I22">
+        <v>15</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22" t="s">
+        <v>28</v>
+      </c>
+      <c r="L22">
+        <v>20000</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>20000</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
+      <c r="H23">
+        <v>23</v>
+      </c>
+      <c r="I23">
+        <v>15</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23" t="s">
+        <v>25</v>
+      </c>
+      <c r="L23">
+        <v>17000</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="24"/>
+    <row r="25"/>
+    <row r="26">
+      <c r="J26" t="s">
+        <v>6</v>
+      </c>
+      <c r="N26">
+        <v>219000</v>
+      </c>
+    </row>
+    <row r="27"/>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30">
+        <v>134000</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
         <v>27</v>
       </c>
-      <c r="B23">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
+      <c r="B31">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
         <v>22</v>
       </c>
-      <c r="B24">
+      <c r="B32">
         <v>45000</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26">
+    <row r="33">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34">
         <v>0</v>
       </c>
     </row>
